--- a/data/trans_orig/IP41-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP41-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE565BD3-3001-4E8A-9553-4144D2CB5588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFE9736A-CD7B-4B13-B490-BE64CD891107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{89E59B75-8999-49D0-881D-7DBD8C06901A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{333D3BC3-8AE4-48CD-B1B9-ADF3EC1F73F7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="283">
   <si>
     <t>Adulto según si está casado y/o vive en pareja en 2007 (Tasa respuesta: 98,81%)</t>
   </si>
@@ -101,55 +101,55 @@
     <t>82,14%</t>
   </si>
   <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
   </si>
   <si>
     <t>74,41%</t>
   </si>
   <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
   </si>
   <si>
     <t>78,28%</t>
   </si>
   <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
   </si>
   <si>
     <t>17,86%</t>
   </si>
   <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
   </si>
   <si>
     <t>25,59%</t>
   </si>
   <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
   </si>
   <si>
     <t>21,72%</t>
   </si>
   <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
   </si>
   <si>
     <t>100%</t>
@@ -170,16 +170,16 @@
     <t>93,61%</t>
   </si>
   <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
   </si>
   <si>
     <t>94,42%</t>
   </si>
   <si>
-    <t>92,33%</t>
+    <t>92,25%</t>
   </si>
   <si>
     <t>96,02%</t>
@@ -188,7 +188,7 @@
     <t>93,99%</t>
   </si>
   <si>
-    <t>92,57%</t>
+    <t>92,59%</t>
   </si>
   <si>
     <t>95,09%</t>
@@ -197,10 +197,10 @@
     <t>6,39%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
   </si>
   <si>
     <t>5,58%</t>
@@ -209,7 +209,7 @@
     <t>3,98%</t>
   </si>
   <si>
-    <t>7,67%</t>
+    <t>7,75%</t>
   </si>
   <si>
     <t>6,01%</t>
@@ -218,7 +218,7 @@
     <t>4,91%</t>
   </si>
   <si>
-    <t>7,43%</t>
+    <t>7,41%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -236,55 +236,55 @@
     <t>94,37%</t>
   </si>
   <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>91,53%</t>
   </si>
   <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>92,89%</t>
   </si>
   <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
   </si>
   <si>
     <t>5,63%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
   </si>
   <si>
     <t>8,47%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
   </si>
   <si>
     <t>7,11%</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
   </si>
   <si>
     <t>0,18%</t>
@@ -299,7 +299,7 @@
     <t>92,38%</t>
   </si>
   <si>
-    <t>90,62%</t>
+    <t>90,63%</t>
   </si>
   <si>
     <t>93,83%</t>
@@ -311,16 +311,16 @@
     <t>89,01%</t>
   </si>
   <si>
-    <t>92,79%</t>
+    <t>92,74%</t>
   </si>
   <si>
     <t>91,76%</t>
   </si>
   <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>7,62%</t>
@@ -329,13 +329,13 @@
     <t>6,17%</t>
   </si>
   <si>
-    <t>9,38%</t>
+    <t>9,37%</t>
   </si>
   <si>
     <t>8,91%</t>
   </si>
   <si>
-    <t>7,21%</t>
+    <t>7,26%</t>
   </si>
   <si>
     <t>10,99%</t>
@@ -344,10 +344,10 @@
     <t>8,24%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -377,55 +377,55 @@
     <t>80,73%</t>
   </si>
   <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
   </si>
   <si>
     <t>81,0%</t>
   </si>
   <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
   </si>
   <si>
     <t>80,87%</t>
   </si>
   <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
   <si>
     <t>19,27%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
   </si>
   <si>
     <t>19,0%</t>
   </si>
   <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
   </si>
   <si>
     <t>19,13%</t>
   </si>
   <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
   </si>
   <si>
     <t>0,29%</t>
@@ -434,55 +434,55 @@
     <t>88,43%</t>
   </si>
   <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
   </si>
   <si>
     <t>88,63%</t>
   </si>
   <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
   </si>
   <si>
     <t>88,53%</t>
   </si>
   <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
   </si>
   <si>
     <t>11,57%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
   </si>
   <si>
     <t>11,37%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
   </si>
   <si>
     <t>11,47%</t>
   </si>
   <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
   </si>
   <si>
     <t>0,78%</t>
@@ -494,340 +494,334 @@
     <t>91,96%</t>
   </si>
   <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>95,18%</t>
   </si>
   <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
   </si>
   <si>
     <t>8,04%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
   </si>
   <si>
     <t>88,28%</t>
   </si>
   <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>Adulto según si está casado y/o vive en pareja en 2016 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
     <t>86,31%</t>
   </si>
   <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
   </si>
   <si>
     <t>13,69%</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>Adulto según si está casado y/o vive en pareja en 2015 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
   </si>
   <si>
     <t>10,57%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
   </si>
   <si>
     <t>83,76%</t>
   </si>
   <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>84,19%</t>
   </si>
   <si>
-    <t>81,96%</t>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
   </si>
   <si>
     <t>83,97%</t>
   </si>
   <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
+    <t>82,46%</t>
   </si>
   <si>
     <t>16,24%</t>
   </si>
   <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
   </si>
   <si>
     <t>15,81%</t>
   </si>
   <si>
-    <t>18,04%</t>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
   </si>
   <si>
     <t>16,03%</t>
   </si>
   <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
+    <t>17,54%</t>
   </si>
   <si>
     <t>Adulto según si está casado y/o vive en pareja en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1305,7 +1299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701206A6-D25F-40CC-873B-929D08ECF18B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577AD8B9-44C3-451D-8D87-0CB3B0337FC7}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2443,7 +2437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7386B4AA-54D3-4CA9-883F-13F880FCF8CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC84C43-1870-4FF8-B041-D49BDD7AD9B8}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2828,7 +2822,7 @@
         <v>108</v>
       </c>
       <c r="I9" s="7">
-        <v>74818</v>
+        <v>74819</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>114</v>
@@ -2930,7 +2924,7 @@
         <v>134</v>
       </c>
       <c r="I11" s="7">
-        <v>92368</v>
+        <v>92369</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>37</v>
@@ -3597,7 +3591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F94BB2-6350-4939-8D38-E201A0061BEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1846E4E-A7E7-44DA-A563-47A10CECBB9C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4366,13 +4360,13 @@
         <v>168714</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H17" s="7">
         <v>230</v>
@@ -4381,13 +4375,13 @@
         <v>153406</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M17" s="7">
         <v>475</v>
@@ -4396,13 +4390,13 @@
         <v>322119</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,13 +4411,13 @@
         <v>18781</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -4432,13 +4426,13 @@
         <v>19297</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M18" s="7">
         <v>54</v>
@@ -4447,13 +4441,13 @@
         <v>38078</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4566,13 @@
         <v>622770</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H21" s="7">
         <v>896</v>
@@ -4587,13 +4581,13 @@
         <v>592276</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M21" s="7">
         <v>1789</v>
@@ -4602,13 +4596,13 @@
         <v>1215045</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>253</v>
-      </c>
       <c r="Q21" s="7" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,13 +4617,13 @@
         <v>120788</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H22" s="7">
         <v>164</v>
@@ -4638,13 +4632,13 @@
         <v>111194</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>334</v>
@@ -4653,13 +4647,13 @@
         <v>231983</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,7 +4729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E8358C-57C0-4F4B-A3C7-C10F8DAB89ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C63684F-30E0-4738-AD94-873C9427A433}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4752,7 +4746,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5060,7 +5054,7 @@
         <v>106</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>37</v>
@@ -5075,7 +5069,7 @@
         <v>106</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>37</v>
@@ -5090,7 +5084,7 @@
         <v>106</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>37</v>
@@ -5114,37 +5108,37 @@
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,37 +5159,37 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,7 +5260,7 @@
         <v>106</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>37</v>
@@ -5281,7 +5275,7 @@
         <v>106</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>37</v>
@@ -5296,7 +5290,7 @@
         <v>106</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>37</v>
@@ -5335,7 +5329,7 @@
         <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5350,7 +5344,7 @@
         <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,7 +5380,7 @@
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5401,7 +5395,7 @@
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,7 +5466,7 @@
         <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>37</v>
@@ -5487,7 +5481,7 @@
         <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>37</v>
@@ -5502,7 +5496,7 @@
         <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>37</v>
@@ -5526,37 +5520,37 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,37 +5571,37 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,7 +5672,7 @@
         <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>37</v>
@@ -5693,7 +5687,7 @@
         <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>37</v>
@@ -5708,7 +5702,7 @@
         <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>37</v>
@@ -5732,7 +5726,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5747,7 +5741,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5762,7 +5756,7 @@
         <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,7 +5777,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5798,7 +5792,7 @@
         <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5813,7 +5807,7 @@
         <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP41-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP41-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFE9736A-CD7B-4B13-B490-BE64CD891107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B311657-23EF-4818-8A6E-A3EE11EF34B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{333D3BC3-8AE4-48CD-B1B9-ADF3EC1F73F7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E873B84B-0E3F-4EC0-9901-C1974025BBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="283">
-  <si>
-    <t>Adulto según si está casado y/o vive en pareja en 2007 (Tasa respuesta: 98,81%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="281">
+  <si>
+    <t>Progenitores según si está casado y/o vive en pareja en 2007 (Tasa respuesta: 98,81%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,88 +68,82 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>994.0</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
   </si>
   <si>
     <t>17,86%</t>
   </si>
   <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
   </si>
   <si>
     <t>21,72%</t>
   </si>
   <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -158,699 +152,699 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>0,31%</t>
+  </si>
+  <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
     <t>0,14%</t>
   </si>
   <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
     <t>93,61%</t>
   </si>
   <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
   </si>
   <si>
     <t>93,99%</t>
   </si>
   <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
   </si>
   <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
   </si>
   <si>
     <t>6,01%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>0,76%</t>
+  </si>
+  <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
     <t>0,39%</t>
   </si>
   <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
     <t>94,37%</t>
   </si>
   <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
   </si>
   <si>
     <t>92,89%</t>
   </si>
   <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
   </si>
   <si>
     <t>5,63%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
   </si>
   <si>
     <t>7,11%</t>
   </si>
   <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
     <t>0,09%</t>
   </si>
   <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
     <t>92,38%</t>
   </si>
   <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Progenitores según si está casado y/o vive en pareja en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>Progenitores según si está casado y/o vive en pareja en 2016 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
   </si>
   <si>
     <t>92,74%</t>
   </si>
   <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adulto según si está casado y/o vive en pareja en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>Progenitores según si está casado y/o vive en pareja en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>Adulto según si está casado y/o vive en pareja en 2016 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>Adulto según si está casado y/o vive en pareja en 2023 (Tasa respuesta: 100,0%)</t>
+    <t>97,26%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>97,26%</t>
-  </si>
-  <si>
     <t>98,75%</t>
   </si>
   <si>
+    <t>2,74%</t>
+  </si>
+  <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
     <t>1,25%</t>
   </si>
   <si>
+    <t>99,7%</t>
+  </si>
+  <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>99,7%</t>
-  </si>
-  <si>
     <t>99,85%</t>
   </si>
   <si>
@@ -860,19 +854,19 @@
     <t>0,15%</t>
   </si>
   <si>
+    <t>99,17%</t>
+  </si>
+  <si>
     <t>99,2%</t>
   </si>
   <si>
-    <t>99,17%</t>
-  </si>
-  <si>
     <t>99,59%</t>
   </si>
   <si>
+    <t>0,83%</t>
+  </si>
+  <si>
     <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
   </si>
   <si>
     <t>0,41%</t>
@@ -1299,8 +1293,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577AD8B9-44C3-451D-8D87-0CB3B0337FC7}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C004DC-1F26-4F49-893A-50DBD98AD771}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1419,131 +1413,149 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="D5" s="7">
+        <v>64547</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="I5" s="7">
+        <v>71330</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>205</v>
+      </c>
+      <c r="N5" s="7">
+        <v>135877</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D6" s="7">
+        <v>22195</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="I6" s="7">
+        <v>15515</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="N6" s="7">
+        <v>37710</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1552,48 +1564,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="D7" s="7">
+        <v>86742</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I7" s="7">
+        <v>86845</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>260</v>
+      </c>
+      <c r="N7" s="7">
+        <v>173587</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1605,13 +1623,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1620,13 +1638,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1635,115 +1653,115 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
-        <v>107</v>
+        <v>587</v>
       </c>
       <c r="D9" s="7">
-        <v>71330</v>
+        <v>389094</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>98</v>
+        <v>664</v>
       </c>
       <c r="I9" s="7">
-        <v>64547</v>
+        <v>441153</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M9" s="7">
-        <v>205</v>
+        <v>1251</v>
       </c>
       <c r="N9" s="7">
-        <v>135877</v>
+        <v>830247</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7">
-        <v>15514</v>
+        <v>22999</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I10" s="7">
-        <v>22195</v>
+        <v>30118</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
+        <v>81</v>
+      </c>
+      <c r="N10" s="7">
+        <v>53117</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="7">
-        <v>37710</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,54 +1770,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>130</v>
+        <v>622</v>
       </c>
       <c r="D11" s="7">
-        <v>86844</v>
+        <v>412093</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
-        <v>130</v>
+        <v>710</v>
       </c>
       <c r="I11" s="7">
-        <v>86742</v>
+        <v>471271</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
-        <v>260</v>
+        <v>1332</v>
       </c>
       <c r="N11" s="7">
-        <v>173587</v>
+        <v>883364</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1811,13 +1829,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1826,13 +1844,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1841,115 +1859,115 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
-        <v>664</v>
+        <v>231</v>
       </c>
       <c r="D13" s="7">
-        <v>441153</v>
+        <v>157832</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
-        <v>587</v>
+        <v>222</v>
       </c>
       <c r="I13" s="7">
-        <v>389094</v>
+        <v>148656</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
-        <v>1251</v>
+        <v>453</v>
       </c>
       <c r="N13" s="7">
-        <v>830247</v>
+        <v>306487</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7">
+        <v>21</v>
+      </c>
+      <c r="D14" s="7">
+        <v>14596</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="7">
         <v>13</v>
       </c>
-      <c r="C14" s="7">
-        <v>46</v>
-      </c>
-      <c r="D14" s="7">
-        <v>30118</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="7">
-        <v>35</v>
-      </c>
       <c r="I14" s="7">
-        <v>22999</v>
+        <v>8869</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="N14" s="7">
-        <v>53117</v>
+        <v>23465</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1958,54 +1976,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>710</v>
+        <v>252</v>
       </c>
       <c r="D15" s="7">
-        <v>471271</v>
+        <v>172428</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
-        <v>622</v>
+        <v>235</v>
       </c>
       <c r="I15" s="7">
-        <v>412093</v>
+        <v>157525</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
-        <v>1332</v>
+        <v>487</v>
       </c>
       <c r="N15" s="7">
-        <v>883364</v>
+        <v>329952</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2017,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2032,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2047,115 +2065,115 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>222</v>
+        <v>916</v>
       </c>
       <c r="D17" s="7">
-        <v>148656</v>
+        <v>611473</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7">
-        <v>231</v>
+        <v>993</v>
       </c>
       <c r="I17" s="7">
-        <v>157832</v>
+        <v>661138</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
-        <v>453</v>
+        <v>1909</v>
       </c>
       <c r="N17" s="7">
-        <v>306487</v>
+        <v>1272611</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="D18" s="7">
-        <v>8869</v>
+        <v>59790</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="H18" s="7">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I18" s="7">
-        <v>14596</v>
+        <v>54502</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="M18" s="7">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="N18" s="7">
-        <v>23465</v>
+        <v>114292</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,267 +2182,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>235</v>
+        <v>1004</v>
       </c>
       <c r="D19" s="7">
-        <v>157525</v>
+        <v>671263</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
-        <v>252</v>
+        <v>1075</v>
       </c>
       <c r="I19" s="7">
-        <v>172428</v>
+        <v>715640</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
-        <v>487</v>
+        <v>2079</v>
       </c>
       <c r="N19" s="7">
-        <v>329952</v>
+        <v>1386903</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7">
-        <v>993</v>
-      </c>
-      <c r="D21" s="7">
-        <v>661138</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="7">
-        <v>916</v>
-      </c>
-      <c r="I21" s="7">
-        <v>611473</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1909</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1272611</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="7">
-        <v>82</v>
-      </c>
-      <c r="D22" s="7">
-        <v>54502</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" s="7">
-        <v>88</v>
-      </c>
-      <c r="I22" s="7">
-        <v>59790</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M22" s="7">
-        <v>170</v>
-      </c>
-      <c r="N22" s="7">
-        <v>114292</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P22" s="7" t="s">
+      <c r="A20" t="s">
         <v>101</v>
       </c>
-      <c r="Q22" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1075</v>
-      </c>
-      <c r="D23" s="7">
-        <v>715640</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1004</v>
-      </c>
-      <c r="I23" s="7">
-        <v>671263</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2079</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1386903</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>103</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2437,8 +2248,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC84C43-1870-4FF8-B041-D49BDD7AD9B8}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE188B6B-543D-4277-9DAB-7A681C9C9C2E}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2454,7 +2265,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2561,26 +2372,28 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2589,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>105</v>
@@ -2601,99 +2414,103 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>74819</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="I5" s="7">
+        <v>69586</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>144405</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>17550</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I6" s="7">
+        <v>16606</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>34156</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,52 +2519,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="D7" s="7">
-        <v>641</v>
+        <v>92369</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="I7" s="7">
+        <v>86192</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="N7" s="7">
-        <v>641</v>
+        <v>178561</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2759,13 +2578,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2774,13 +2593,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2789,115 +2608,115 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
-        <v>96</v>
+        <v>580</v>
       </c>
       <c r="D9" s="7">
-        <v>69586</v>
+        <v>400135</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="H9" s="7">
-        <v>108</v>
+        <v>626</v>
       </c>
       <c r="I9" s="7">
-        <v>74819</v>
+        <v>437262</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="M9" s="7">
-        <v>204</v>
+        <v>1206</v>
       </c>
       <c r="N9" s="7">
-        <v>144405</v>
+        <v>837397</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D10" s="7">
-        <v>16606</v>
+        <v>51357</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I10" s="7">
-        <v>17550</v>
+        <v>57184</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="M10" s="7">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="N10" s="7">
-        <v>34156</v>
+        <v>108540</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,54 +2725,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>121</v>
+        <v>654</v>
       </c>
       <c r="D11" s="7">
-        <v>86192</v>
+        <v>451492</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
-        <v>134</v>
+        <v>708</v>
       </c>
       <c r="I11" s="7">
-        <v>92369</v>
+        <v>494446</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
-        <v>255</v>
+        <v>1362</v>
       </c>
       <c r="N11" s="7">
-        <v>178561</v>
+        <v>945937</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2965,13 +2784,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2980,13 +2799,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2995,115 +2814,115 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
-        <v>626</v>
+        <v>224</v>
       </c>
       <c r="D13" s="7">
-        <v>437262</v>
+        <v>158769</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H13" s="7">
-        <v>580</v>
+        <v>225</v>
       </c>
       <c r="I13" s="7">
-        <v>400135</v>
+        <v>158384</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
-        <v>1206</v>
+        <v>449</v>
       </c>
       <c r="N13" s="7">
-        <v>837397</v>
+        <v>317153</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D14" s="7">
-        <v>57184</v>
+        <v>8043</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="H14" s="7">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I14" s="7">
-        <v>51357</v>
+        <v>13844</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M14" s="7">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="N14" s="7">
-        <v>108540</v>
+        <v>21888</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,54 +2931,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>708</v>
+        <v>236</v>
       </c>
       <c r="D15" s="7">
-        <v>494446</v>
+        <v>166812</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
-        <v>654</v>
+        <v>244</v>
       </c>
       <c r="I15" s="7">
-        <v>451492</v>
+        <v>172228</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
-        <v>1362</v>
+        <v>480</v>
       </c>
       <c r="N15" s="7">
-        <v>945937</v>
+        <v>339041</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3171,13 +2990,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3186,13 +3005,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3201,115 +3020,115 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>225</v>
+        <v>912</v>
       </c>
       <c r="D17" s="7">
-        <v>158384</v>
+        <v>633723</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="H17" s="7">
-        <v>224</v>
+        <v>947</v>
       </c>
       <c r="I17" s="7">
-        <v>158769</v>
+        <v>665232</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="M17" s="7">
-        <v>449</v>
+        <v>1859</v>
       </c>
       <c r="N17" s="7">
-        <v>317153</v>
+        <v>1298955</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="D18" s="7">
-        <v>13844</v>
+        <v>76950</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="H18" s="7">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I18" s="7">
-        <v>8043</v>
+        <v>87634</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="M18" s="7">
-        <v>31</v>
+        <v>238</v>
       </c>
       <c r="N18" s="7">
-        <v>21888</v>
+        <v>164584</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,267 +3137,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>244</v>
+        <v>1024</v>
       </c>
       <c r="D19" s="7">
-        <v>172228</v>
+        <v>710673</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
-        <v>236</v>
+        <v>1073</v>
       </c>
       <c r="I19" s="7">
-        <v>166812</v>
+        <v>752866</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
-        <v>480</v>
+        <v>2097</v>
       </c>
       <c r="N19" s="7">
-        <v>339041</v>
+        <v>1463539</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7">
-        <v>947</v>
-      </c>
-      <c r="D21" s="7">
-        <v>665232</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H21" s="7">
-        <v>912</v>
-      </c>
-      <c r="I21" s="7">
-        <v>633723</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1859</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1298955</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="7">
-        <v>127</v>
-      </c>
-      <c r="D22" s="7">
-        <v>88275</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H22" s="7">
-        <v>112</v>
-      </c>
-      <c r="I22" s="7">
-        <v>76950</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="M22" s="7">
-        <v>239</v>
-      </c>
-      <c r="N22" s="7">
-        <v>165225</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1074</v>
-      </c>
-      <c r="D23" s="7">
-        <v>753507</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I23" s="7">
-        <v>710673</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2098</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1464180</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>103</v>
+      <c r="A20" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3591,8 +3203,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1846E4E-A7E7-44DA-A563-47A10CECBB9C}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED890225-08D1-4949-9129-E3FF1E48066F}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3608,7 +3220,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3711,131 +3323,149 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="D5" s="7">
+        <v>48390</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="I5" s="7">
+        <v>46716</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="N5" s="7">
+        <v>95106</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10988</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="I6" s="7">
+        <v>21898</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="N6" s="7">
+        <v>32887</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,48 +3474,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D7" s="7">
+        <v>59378</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I7" s="7">
+        <v>68614</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N7" s="7">
+        <v>127993</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3897,13 +3533,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3912,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3927,115 +3563,115 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
-        <v>68</v>
+        <v>594</v>
       </c>
       <c r="D9" s="7">
-        <v>46716</v>
+        <v>390480</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="H9" s="7">
-        <v>72</v>
+        <v>580</v>
       </c>
       <c r="I9" s="7">
-        <v>48390</v>
+        <v>407339</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="M9" s="7">
-        <v>140</v>
+        <v>1174</v>
       </c>
       <c r="N9" s="7">
-        <v>95106</v>
+        <v>797820</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="D10" s="7">
-        <v>21898</v>
+        <v>80909</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="H10" s="7">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="I10" s="7">
-        <v>10988</v>
+        <v>80109</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="M10" s="7">
-        <v>48</v>
+        <v>232</v>
       </c>
       <c r="N10" s="7">
-        <v>32887</v>
+        <v>161018</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,54 +3680,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>99</v>
+        <v>713</v>
       </c>
       <c r="D11" s="7">
-        <v>68614</v>
+        <v>471389</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
-        <v>89</v>
+        <v>693</v>
       </c>
       <c r="I11" s="7">
-        <v>59378</v>
+        <v>487448</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
-        <v>188</v>
+        <v>1406</v>
       </c>
       <c r="N11" s="7">
-        <v>127993</v>
+        <v>958838</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4103,13 +3739,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4118,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4133,115 +3769,115 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>41</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
-        <v>580</v>
+        <v>230</v>
       </c>
       <c r="D13" s="7">
-        <v>407339</v>
+        <v>153406</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="H13" s="7">
-        <v>594</v>
+        <v>245</v>
       </c>
       <c r="I13" s="7">
-        <v>390480</v>
+        <v>168714</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="M13" s="7">
-        <v>1174</v>
+        <v>475</v>
       </c>
       <c r="N13" s="7">
-        <v>797820</v>
+        <v>322119</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7">
-        <v>80109</v>
+        <v>19297</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="H14" s="7">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="I14" s="7">
-        <v>80909</v>
+        <v>18781</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
-        <v>232</v>
+        <v>54</v>
       </c>
       <c r="N14" s="7">
-        <v>161018</v>
+        <v>38078</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,54 +3886,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>693</v>
+        <v>258</v>
       </c>
       <c r="D15" s="7">
-        <v>487448</v>
+        <v>172703</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
-        <v>713</v>
+        <v>271</v>
       </c>
       <c r="I15" s="7">
-        <v>471389</v>
+        <v>187495</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
-        <v>1406</v>
+        <v>529</v>
       </c>
       <c r="N15" s="7">
-        <v>958838</v>
+        <v>360197</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4309,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>227</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4324,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4339,115 +3975,115 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>228</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
+        <v>896</v>
+      </c>
+      <c r="D17" s="7">
+        <v>592276</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H17" s="7">
+        <v>893</v>
+      </c>
+      <c r="I17" s="7">
+        <v>622770</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D17" s="7">
-        <v>168714</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H17" s="7">
-        <v>230</v>
-      </c>
-      <c r="I17" s="7">
-        <v>153406</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>231</v>
-      </c>
       <c r="K17" s="7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
-        <v>475</v>
+        <v>1789</v>
       </c>
       <c r="N17" s="7">
-        <v>322119</v>
+        <v>1215045</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="D18" s="7">
-        <v>18781</v>
+        <v>111194</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="H18" s="7">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="I18" s="7">
-        <v>19297</v>
+        <v>120788</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="M18" s="7">
-        <v>54</v>
+        <v>334</v>
       </c>
       <c r="N18" s="7">
-        <v>38078</v>
+        <v>231983</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,267 +4092,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>271</v>
+        <v>1060</v>
       </c>
       <c r="D19" s="7">
-        <v>187495</v>
+        <v>703470</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
-        <v>258</v>
+        <v>1063</v>
       </c>
       <c r="I19" s="7">
-        <v>172703</v>
+        <v>743558</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
-        <v>529</v>
+        <v>2123</v>
       </c>
       <c r="N19" s="7">
-        <v>360197</v>
+        <v>1447028</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7">
-        <v>893</v>
-      </c>
-      <c r="D21" s="7">
-        <v>622770</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H21" s="7">
-        <v>896</v>
-      </c>
-      <c r="I21" s="7">
-        <v>592276</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1789</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1215045</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="7">
-        <v>170</v>
-      </c>
-      <c r="D22" s="7">
-        <v>120788</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H22" s="7">
-        <v>164</v>
-      </c>
-      <c r="I22" s="7">
-        <v>111194</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="M22" s="7">
-        <v>334</v>
-      </c>
-      <c r="N22" s="7">
-        <v>231983</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1063</v>
-      </c>
-      <c r="D23" s="7">
-        <v>743558</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1060</v>
-      </c>
-      <c r="I23" s="7">
-        <v>703470</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2123</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1447028</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>103</v>
+      <c r="A20" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4729,8 +4158,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C63684F-30E0-4738-AD94-873C9427A433}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4FFEC6-0158-4F25-A1B2-BFEC5237DB3B}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4746,7 +4175,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4847,66 +4276,70 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D4" s="7">
+        <v>54678</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>259</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>260</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I4" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N4" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4915,13 +4348,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>105</v>
+        <v>264</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4930,32 +4363,34 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4964,13 +4399,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>105</v>
+        <v>264</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4979,13 +4414,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>105</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,106 +4429,108 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D7" s="7">
+        <v>54678</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I7" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N7" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>83</v>
+        <v>643</v>
       </c>
       <c r="D8" s="7">
-        <v>58757</v>
+        <v>460510</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
-        <v>69</v>
+        <v>656</v>
       </c>
       <c r="I8" s="7">
-        <v>51202</v>
+        <v>516619</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
-        <v>152</v>
+        <v>1299</v>
       </c>
       <c r="N8" s="7">
-        <v>109959</v>
+        <v>977129</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -5102,13 +4539,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5117,13 +4554,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>266</v>
+        <v>124</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5132,19 +4569,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -5153,13 +4590,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5168,13 +4605,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5183,13 +4620,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,108 +4635,108 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>83</v>
+        <v>643</v>
       </c>
       <c r="D11" s="7">
-        <v>58757</v>
+        <v>460510</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
-        <v>69</v>
+        <v>656</v>
       </c>
       <c r="I11" s="7">
-        <v>51202</v>
+        <v>516619</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
-        <v>152</v>
+        <v>1299</v>
       </c>
       <c r="N11" s="7">
-        <v>109959</v>
+        <v>977129</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>656</v>
+        <v>230</v>
       </c>
       <c r="D12" s="7">
-        <v>492364</v>
+        <v>149551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H12" s="7">
-        <v>643</v>
+        <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>449968</v>
+        <v>183349</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M12" s="7">
-        <v>1299</v>
+        <v>468</v>
       </c>
       <c r="N12" s="7">
-        <v>942333</v>
+        <v>332900</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -5308,13 +4745,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>129</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5323,13 +4760,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5338,19 +4775,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -5359,13 +4796,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>129</v>
+        <v>274</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5374,13 +4811,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5389,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,108 +4841,108 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>656</v>
+        <v>230</v>
       </c>
       <c r="D15" s="7">
-        <v>492364</v>
+        <v>149551</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
-        <v>643</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>449968</v>
+        <v>183349</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
-        <v>1299</v>
+        <v>468</v>
       </c>
       <c r="N15" s="7">
-        <v>942333</v>
+        <v>332900</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>238</v>
+        <v>942</v>
       </c>
       <c r="D16" s="7">
-        <v>174583</v>
+        <v>664738</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H16" s="7">
-        <v>230</v>
+        <v>977</v>
       </c>
       <c r="I16" s="7">
-        <v>151370</v>
+        <v>761972</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M16" s="7">
-        <v>468</v>
+        <v>1919</v>
       </c>
       <c r="N16" s="7">
-        <v>325952</v>
+        <v>1426710</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -5514,13 +4951,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5529,13 +4966,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5544,19 +4981,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -5565,13 +5002,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5580,13 +5017,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5595,13 +5032,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,267 +5047,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>238</v>
+        <v>942</v>
       </c>
       <c r="D19" s="7">
-        <v>174583</v>
+        <v>664738</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
-        <v>230</v>
+        <v>977</v>
       </c>
       <c r="I19" s="7">
-        <v>151370</v>
+        <v>761972</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
-        <v>468</v>
+        <v>1919</v>
       </c>
       <c r="N19" s="7">
-        <v>325952</v>
+        <v>1426710</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>977</v>
-      </c>
-      <c r="D20" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="7">
-        <v>943</v>
-      </c>
-      <c r="I20" s="7">
-        <v>653712</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1920</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1379416</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>977</v>
-      </c>
-      <c r="D23" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="7">
-        <v>943</v>
-      </c>
-      <c r="I23" s="7">
-        <v>653712</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1920</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1379416</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>103</v>
+      <c r="A20" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
